--- a/PosgrIQ/bin/Release/templates/templateCalificadores.xlsx
+++ b/PosgrIQ/bin/Release/templates/templateCalificadores.xlsx
@@ -105,61 +105,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>655809</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92CEB15B-A324-46EB-A254-3E31EE90DFEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="180975" y="0"/>
-          <a:ext cx="2170284" cy="576000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,8 +809,11 @@
       <c r="H45" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>